--- a/data_model_files/import (The template ontology for data import)/resources.xlsx
+++ b/data_model_files/import (The template ontology for data import)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/knora/dsplib/import_scripts/data_model_files/import (The template ontology for data import)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/dsp-tools/src/dsp_tools/import_scripts/data_model_files/import (The template ontology for data import)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296EA697-C66E-1842-A5ED-BCD00793E589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B92866F-C78D-0C48-919E-F3266515A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1640" windowWidth="26160" windowHeight="15560" activeTab="2" xr2:uid="{21CE00AF-D0D3-C346-89EF-6D534C639BCD}"/>
+    <workbookView xWindow="2460" yWindow="1640" windowWidth="26160" windowHeight="15560" xr2:uid="{21CE00AF-D0D3-C346-89EF-6D534C639BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -34,27 +34,552 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B7B2D4E3-5968-3348-9C8F-12B0F5DFECF5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Unique identifier for the resource class</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8FC34020-2528-8F4C-AACB-9AAC87A0531B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">one language mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Label of the resource class that will be displayed in DSP-APP. Should be rather short.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2CDE5A24-FABE-4149-BA5F-112445622428}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Description of the resource class. Can be longer than the label.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{7C46B5F9-6316-794D-9AB2-1335C8D0DB86}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">The type of this resource class, i.e. the base resource class(es) that this resource class is derived from.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Must be one of the values listed in the documentation. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">If more than one: separated by commas. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A72E8568-4642-2C41-B317-336A87ADA896}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8BFA64AF-37EB-604F-BF1E-07BC7C0FE0FC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2328ACFA-9EDA-8644-99C8-0B1B23ED4F27}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{075E3492-F65D-0E44-8BFE-295582447299}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{40023362-9BF6-E644-9362-578319C6F037}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F76CF69B-9156-584E-A1AB-14982D741918}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>rm</t>
-  </si>
-  <si>
     <t>comment_en</t>
   </si>
   <si>
@@ -137,13 +662,31 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>label_en</t>
+  </si>
+  <si>
+    <t>label_de</t>
+  </si>
+  <si>
+    <t>label_fr</t>
+  </si>
+  <si>
+    <t>label_it</t>
+  </si>
+  <si>
+    <t>label_rm</t>
+  </si>
+  <si>
+    <t>gui_order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +701,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,14 +749,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,19 +1071,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F0D3C5-BC1D-CB48-9C97-E30EC452F5BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F0D3C5-BC1D-CB48-9C97-E30EC452F5BC}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -517,76 +1092,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="name_2" xr:uid="{38FADC06-0831-6F48-9511-9DDE684AF83E}"/>
+    <hyperlink ref="B1" r:id="rId2" location="labels_1" xr:uid="{88DD23A6-9589-6A40-8FDE-A4DA6D879E9D}"/>
+    <hyperlink ref="G1" r:id="rId3" location="comments_1" xr:uid="{4C34F17F-81CA-6146-8AA0-FCCA3FCA47AB}"/>
+    <hyperlink ref="L1" r:id="rId4" location="super_1" display="type" xr:uid="{D8713F21-F787-A941-BF33-FCC5F9826FFC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055036C3-9294-4345-9014-FBDAD87C450C}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055036C3-9294-4345-9014-FBDAD87C450C}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,33 +1176,40 @@
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{AF34D342-ED18-8144-8AD9-309F5EA63F40}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE0CE73-59FD-ED4F-A98E-E325E8F2B2B8}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE0CE73-59FD-ED4F-A98E-E325E8F2B2B8}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,103 +1217,110 @@
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{7667DEFB-36CF-424F-B19E-CBA3E23DFCBE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>